--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRANSMISIÓN DEL SUR S.A.</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,11 +4807,11 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
@@ -4820,12 +4820,12 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2167,7 +2167,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2983,7 +2983,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3847,7 +3847,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F73" t="n">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
+          <t>Central de Respaldo tipo PMGD Calbuco</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Aggreko Chile Limitada</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>42067</v>
+        <v>9000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>16/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>107000</v>
+        <v>42067</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>63000</v>
+        <v>107000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
+          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,15 +631,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
+          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>65</v>
+        <v>63000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Relleno Industrial de Residuos No Organicos</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>25000</v>
+        <v>65</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>26/11/2014</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
+          <t>Relleno Industrial de Residuos No Organicos</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>65</v>
+        <v>25000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>26/11/2014</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,20 +770,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,15 +871,15 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,30 +914,30 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>56</v>
+        <v>2500</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
+          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3000</v>
+        <v>56</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>18/05/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>20/04/2012</t>
+          <t>18/05/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/04/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>73834</v>
+        <v>100</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
+          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1207,15 +1207,15 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Juvenal HUmberto Zuñiga Torres</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>40</v>
+        <v>73834</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>19/12/2011</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Juvenal HUmberto Zuñiga Torres</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>24/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>24/08/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
+          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>315</v>
+        <v>14000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1538,30 +1538,30 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,25 +1591,25 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1652,12 +1652,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,15 +1783,15 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1874,30 +1874,30 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>RED MAR LTDA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>26/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
+          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Inmobiliaria Núñez Limitada</t>
+          <t>RED MAR LTDA</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>26/03/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
+          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
+          <t>Inmobiliaria Núñez Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>185625</v>
+        <v>15</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>250</v>
+        <v>185625</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2079,7 +2079,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2175,17 +2175,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2263,25 +2263,25 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,15 +2311,15 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2498,30 +2498,30 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>04/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,12 +2642,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -2655,17 +2655,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>04/02/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Anyeceni (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cristina Eliana Vera García</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>20/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ANYECENI (e-seia)</t>
+          <t>Anyeceni (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>20/12/2007</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>ANYECENI (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cristina Eliana Vera García</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2839,15 +2839,15 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>104500</v>
+        <v>10</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>300</v>
+        <v>104500</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>8400</v>
+        <v>300</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
+          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3031,15 +3031,15 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>33</v>
+        <v>8400</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -3049,7 +3049,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
+          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,25 +3079,25 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Juan Gerardo Ruiz Hernández</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>09/02/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Juan Gerardo Ruiz Hernández</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>09/02/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3183,17 +3183,17 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3362,20 +3362,20 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F65" t="n">
@@ -3471,17 +3471,17 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,25 +3511,25 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3746,30 +3746,30 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>22/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
+          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>22/02/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
+          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,15 +3847,15 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>1772</v>
+        <v>200</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>25/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3865,7 +3865,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,20 +3890,20 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>25/01/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Carlos Antonio Velazquez Gonzalez</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>23/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
+          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Luis alejandro Novoa Rojas</t>
+          <t>Carlos Antonio Velazquez Gonzalez</t>
         </is>
       </c>
       <c r="F76" t="n">
@@ -3999,17 +3999,17 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>23/09/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,25 +4039,25 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Luis alejandro Novoa Rojas</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
+          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,15 +4087,15 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Juan Erwin Carcamo Carcamo</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1358</v>
+        <v>14</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4130,20 +4130,20 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Juan Erwin Carcamo Carcamo</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>200</v>
+        <v>1358</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,30 +4226,30 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>13/07/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>13/07/2004</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10/06/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
+          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4471,15 +4471,15 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07/04/2003</t>
+          <t>10/06/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
+          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,25 +4519,25 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Cristian Heriberto Ojeda Zurita</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>30/10/2002</t>
+          <t>07/04/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
+          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
+          <t>Cristian Heriberto Ojeda Zurita</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>17/09/2002</t>
+          <t>30/10/2002</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
+          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
+          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>17/09/2002</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
+          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cultivos Isla Amortajado</t>
+          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
+          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>31/05/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
+          <t>Cultivos Isla Amortajado</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>31/05/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,25 +4807,25 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>1810</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4994,30 +4994,30 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Algas Hernández (Sol. N°97101021)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,30 +5042,30 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Lucio Gaspar Hernandez Hernandez</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>24/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
+          <t>Algas Hernández (Sol. N°97101021)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Hector Ramon Asencio Hernandez</t>
+          <t>Lucio Gaspar Hernandez Hernandez</t>
         </is>
       </c>
       <c r="F99" t="n">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>24/08/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Fogón Contumbrista Camping Pangal</t>
+          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,15 +5143,15 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Hector Ramon Asencio Hernandez</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
+          <t>Fogón Contumbrista Camping Pangal</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5195,11 +5195,11 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Maullín</t>
+          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Maullín</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5282,20 +5282,20 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,30 +5330,30 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>31/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Pesquera Industrial Maullín</t>
+          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5383,25 +5383,25 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Alvaro Salvador Cordova Carrasco</t>
+          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>31/01/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir</t>
+          <t>Pesquera Industrial Maullín</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Alvaro Salvador Cordova Carrasco</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08/11/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
+          <t>Casetas Sanitarias Quenuir</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5483,21 +5483,21 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>27/09/1999</t>
+          <t>08/11/1999</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
+          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>27/09/1999</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
+          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>410</v>
+        <v>1960</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
+          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Floridor del Carmen Almonacid Oyarzo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>3000</v>
+        <v>410</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,15 +5671,15 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Floridor del Carmen Almonacid Oyarzo</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>630</v>
+        <v>3000</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -5689,7 +5689,7 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,43 +5704,91 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
+          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>630</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
           <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición de Aguas Servidas de Maullín</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F112" t="n">
+      <c r="F113" t="n">
         <v>2000</v>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I112" t="inlineStr">
+      <c r="I113" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1027&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
+      <c r="J113" t="inlineStr">
         <is>
           <t>Maullín</t>
         </is>

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,11 +4855,11 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
@@ -4868,12 +4868,12 @@
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J113"/>
+  <dimension ref="A1:J114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Central de Respaldo tipo PMGD Calbuco</t>
+          <t>Crianza y Producción de Peces en Tierra en Ambiente Controlado</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Aggreko Chile Limitada</t>
+          <t>SMART AQUACULTURE SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>9000</v>
+        <v>180000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>06/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158972986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
+          <t>Central de Respaldo tipo PMGD Calbuco</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Aggreko Chile Limitada</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>42067</v>
+        <v>9000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,17 +543,17 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,12 +568,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>107000</v>
+        <v>42067</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>63000</v>
+        <v>107000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
+          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -679,15 +679,15 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
+          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>65</v>
+        <v>63000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -697,7 +697,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Relleno Industrial de Residuos No Organicos</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>25000</v>
+        <v>65</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>26/11/2014</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
+          <t>Relleno Industrial de Residuos No Organicos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>25000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>26/11/2014</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -818,20 +818,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,15 +919,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,30 +962,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>56</v>
+        <v>2500</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
+          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,25 +1015,25 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3000</v>
+        <v>56</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>18/05/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>20/04/2012</t>
+          <t>18/05/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1106,30 +1106,30 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/04/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>73834</v>
+        <v>100</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
+          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1255,15 +1255,15 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Juvenal HUmberto Zuñiga Torres</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>40</v>
+        <v>73834</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>19/12/2011</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Juvenal HUmberto Zuñiga Torres</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>24/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1399,15 +1399,15 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>24/08/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
+          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>315</v>
+        <v>14000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1586,30 +1586,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,25 +1639,25 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,7 +1687,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,15 +1831,15 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1849,7 +1849,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1922,30 +1922,30 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RED MAR LTDA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>26/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
+          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Inmobiliaria Núñez Limitada</t>
+          <t>RED MAR LTDA</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>26/03/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
+          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
+          <t>Inmobiliaria Núñez Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>185625</v>
+        <v>15</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2066,30 +2066,30 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>250</v>
+        <v>185625</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2223,17 +2223,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2311,25 +2311,25 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,15 +2359,15 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2546,30 +2546,30 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>04/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -2703,17 +2703,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>04/02/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Anyeceni (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Cristina Eliana Vera García</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>20/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ANYECENI (e-seia)</t>
+          <t>Anyeceni (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>20/12/2007</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>ANYECENI (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cristina Eliana Vera García</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2887,15 +2887,15 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2905,7 +2905,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>104500</v>
+        <v>10</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>300</v>
+        <v>104500</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>8400</v>
+        <v>300</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
+          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3079,15 +3079,15 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>33</v>
+        <v>8400</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
+          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,25 +3127,25 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Juan Gerardo Ruiz Hernández</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09/02/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3170,30 +3170,30 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Juan Gerardo Ruiz Hernández</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>09/02/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3231,17 +3231,17 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3271,25 +3271,25 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3410,20 +3410,20 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3511,7 +3511,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F66" t="n">
@@ -3519,17 +3519,17 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,25 +3559,25 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3794,30 +3794,30 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>22/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
+          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3855,17 +3855,17 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>22/02/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
+          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3895,15 +3895,15 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>1772</v>
+        <v>200</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>25/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3938,20 +3938,20 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>25/01/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Carlos Antonio Velazquez Gonzalez</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>23/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
+          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Luis alejandro Novoa Rojas</t>
+          <t>Carlos Antonio Velazquez Gonzalez</t>
         </is>
       </c>
       <c r="F77" t="n">
@@ -4047,17 +4047,17 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>23/09/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,25 +4087,25 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Luis alejandro Novoa Rojas</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
+          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,15 +4135,15 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Juan Erwin Carcamo Carcamo</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1358</v>
+        <v>14</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -4153,7 +4153,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4178,20 +4178,20 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Juan Erwin Carcamo Carcamo</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>200</v>
+        <v>1358</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,30 +4274,30 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>13/07/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,20 +4370,20 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>13/07/2004</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10/06/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
+          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4519,15 +4519,15 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07/04/2003</t>
+          <t>10/06/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
+          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,25 +4567,25 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Cristian Heriberto Ojeda Zurita</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>30/10/2002</t>
+          <t>07/04/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
+          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
+          <t>Cristian Heriberto Ojeda Zurita</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>17/09/2002</t>
+          <t>30/10/2002</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
+          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,15 +4663,15 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
+          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>17/09/2002</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -4681,7 +4681,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
+          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cultivos Isla Amortajado</t>
+          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
+          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>31/05/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
+          <t>Cultivos Isla Amortajado</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>31/05/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,25 +4855,25 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>20</v>
+        <v>1810</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5042,20 +5042,20 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Algas Hernández (Sol. N°97101021)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,30 +5090,30 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Lucio Gaspar Hernandez Hernandez</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>24/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
+          <t>Algas Hernández (Sol. N°97101021)</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,7 +5143,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Hector Ramon Asencio Hernandez</t>
+          <t>Lucio Gaspar Hernandez Hernandez</t>
         </is>
       </c>
       <c r="F100" t="n">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>24/08/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -5161,7 +5161,7 @@
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Fogón Contumbrista Camping Pangal</t>
+          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,15 +5191,15 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Hector Ramon Asencio Hernandez</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
+          <t>Fogón Contumbrista Camping Pangal</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5243,11 +5243,11 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Maullín</t>
+          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Maullín</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5330,20 +5330,20 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F104" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,30 +5378,30 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>31/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Pesquera Industrial Maullín</t>
+          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5431,25 +5431,25 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Alvaro Salvador Cordova Carrasco</t>
+          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>31/01/2000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir</t>
+          <t>Pesquera Industrial Maullín</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Alvaro Salvador Cordova Carrasco</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08/11/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
+          <t>Casetas Sanitarias Quenuir</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5531,21 +5531,21 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>27/09/1999</t>
+          <t>08/11/1999</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
+          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>27/09/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
+          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>410</v>
+        <v>1960</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
+          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Floridor del Carmen Almonacid Oyarzo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>3000</v>
+        <v>410</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,15 +5719,15 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Floridor del Carmen Almonacid Oyarzo</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>630</v>
+        <v>3000</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -5737,7 +5737,7 @@
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,43 +5752,91 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>630</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
           <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición de Aguas Servidas de Maullín</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F113" t="n">
+      <c r="F114" t="n">
         <v>2000</v>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr">
+      <c r="I114" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1027&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
+      <c r="J114" t="inlineStr">
         <is>
           <t>Maullín</t>
         </is>

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,11 +4903,11 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
@@ -4916,12 +4916,12 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/04/2023</t>
+          <t>18/05/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J114"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Central de Respaldo tipo PMGD Calbuco</t>
+          <t>Plataforma de Economía Circular Volta Los Lagos</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Aggreko Chile Limitada</t>
+          <t>Volta Servicios SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159033004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
+          <t>Central de Respaldo tipo PMGD Calbuco</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Aggreko Chile Limitada</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>42067</v>
+        <v>9000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -591,17 +591,17 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,12 +616,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -631,25 +631,25 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>107000</v>
+        <v>42067</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>63000</v>
+        <v>107000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,7 +712,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
+          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -727,15 +727,15 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
+          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>65</v>
+        <v>63000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -745,7 +745,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,12 +760,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Relleno Industrial de Residuos No Organicos</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -775,25 +775,25 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>25000</v>
+        <v>65</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>26/11/2014</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
+          <t>Relleno Industrial de Residuos No Organicos</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>65</v>
+        <v>25000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>26/11/2014</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -866,20 +866,20 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -919,25 +919,25 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,15 +967,15 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1010,30 +1010,30 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>56</v>
+        <v>2500</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
+          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1063,25 +1063,25 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3000</v>
+        <v>56</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>18/05/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>20/04/2012</t>
+          <t>18/05/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1129,7 +1129,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1154,30 +1154,30 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/04/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1250,30 +1250,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>73834</v>
+        <v>100</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
+          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1303,15 +1303,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Juvenal HUmberto Zuñiga Torres</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>40</v>
+        <v>73834</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>19/12/2011</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1321,7 +1321,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1346,30 +1346,30 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Juvenal HUmberto Zuñiga Torres</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>24/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1447,15 +1447,15 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>24/08/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1543,15 +1543,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
+          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>315</v>
+        <v>14000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1634,30 +1634,30 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1687,25 +1687,25 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,7 +1735,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -1748,12 +1748,12 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,25 +1783,25 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,15 +1879,15 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1897,7 +1897,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1970,30 +1970,30 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RED MAR LTDA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>26/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
+          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2023,15 +2023,15 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Inmobiliaria Núñez Limitada</t>
+          <t>RED MAR LTDA</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>26/03/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -2041,7 +2041,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
+          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
+          <t>Inmobiliaria Núñez Limitada</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>185625</v>
+        <v>15</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2114,30 +2114,30 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>250</v>
+        <v>185625</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -2185,7 +2185,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2200,7 +2200,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2210,30 +2210,30 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2271,17 +2271,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2306,30 +2306,30 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2359,25 +2359,25 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,15 +2407,15 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2425,7 +2425,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,25 +2455,25 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,15 +2503,15 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2594,30 +2594,30 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>04/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,12 +2738,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -2751,17 +2751,17 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>04/02/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Anyeceni (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,30 +2786,30 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Cristina Eliana Vera García</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>20/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ANYECENI (e-seia)</t>
+          <t>Anyeceni (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2847,17 +2847,17 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>20/12/2007</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>ANYECENI (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2882,30 +2882,30 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cristina Eliana Vera García</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2935,15 +2935,15 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2953,7 +2953,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2978,30 +2978,30 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>104500</v>
+        <v>10</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>300</v>
+        <v>104500</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>8400</v>
+        <v>300</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
+          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3127,15 +3127,15 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>33</v>
+        <v>8400</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -3145,7 +3145,7 @@
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
+          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,25 +3175,25 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Juan Gerardo Ruiz Hernández</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09/02/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3218,30 +3218,30 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Juan Gerardo Ruiz Hernández</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>09/02/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3279,17 +3279,17 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3319,25 +3319,25 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3375,17 +3375,17 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3415,25 +3415,25 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3458,20 +3458,20 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -3481,7 +3481,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F67" t="n">
@@ -3567,17 +3567,17 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,25 +3607,25 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3663,17 +3663,17 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3703,25 +3703,25 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3759,17 +3759,17 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3799,25 +3799,25 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3842,30 +3842,30 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>22/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
+          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3903,17 +3903,17 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>22/02/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
+          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3943,15 +3943,15 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1772</v>
+        <v>200</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>25/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3961,7 +3961,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3986,20 +3986,20 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Sistema de Transmision del Sur S.A.</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>25/01/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Carlos Antonio Velazquez Gonzalez</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>23/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
+          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Luis alejandro Novoa Rojas</t>
+          <t>Carlos Antonio Velazquez Gonzalez</t>
         </is>
       </c>
       <c r="F78" t="n">
@@ -4095,17 +4095,17 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>23/09/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,25 +4135,25 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Luis alejandro Novoa Rojas</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
+          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,15 +4183,15 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Juan Erwin Carcamo Carcamo</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1358</v>
+        <v>14</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4226,20 +4226,20 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Juan Erwin Carcamo Carcamo</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>200</v>
+        <v>1358</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,30 +4322,30 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>13/07/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,20 +4418,20 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>13/07/2004</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10/06/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
+          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4567,15 +4567,15 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07/04/2003</t>
+          <t>10/06/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
+          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,25 +4615,25 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Cristian Heriberto Ojeda Zurita</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>30/10/2002</t>
+          <t>07/04/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
+          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
+          <t>Cristian Heriberto Ojeda Zurita</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>17/09/2002</t>
+          <t>30/10/2002</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
+          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,15 +4711,15 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
+          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>17/09/2002</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
+          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cultivos Isla Amortajado</t>
+          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
+          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>31/05/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
+          <t>Cultivos Isla Amortajado</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>31/05/2002</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,25 +4903,25 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>20</v>
+        <v>1810</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,15 +4999,15 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>1090</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5090,20 +5090,20 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Algas Hernández (Sol. N°97101021)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Lucio Gaspar Hernandez Hernandez</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>24/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
+          <t>Algas Hernández (Sol. N°97101021)</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5191,7 +5191,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Hector Ramon Asencio Hernandez</t>
+          <t>Lucio Gaspar Hernandez Hernandez</t>
         </is>
       </c>
       <c r="F101" t="n">
@@ -5199,7 +5199,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>24/08/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -5209,7 +5209,7 @@
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Fogón Contumbrista Camping Pangal</t>
+          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,15 +5239,15 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Hector Ramon Asencio Hernandez</t>
         </is>
       </c>
       <c r="F102" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
+          <t>Fogón Contumbrista Camping Pangal</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5291,11 +5291,11 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Maullín</t>
+          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Maullín</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5378,20 +5378,20 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F105" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,30 +5426,30 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>31/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Pesquera Industrial Maullín</t>
+          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5479,25 +5479,25 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Alvaro Salvador Cordova Carrasco</t>
+          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>31/01/2000</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir</t>
+          <t>Pesquera Industrial Maullín</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Alvaro Salvador Cordova Carrasco</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08/11/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
+          <t>Casetas Sanitarias Quenuir</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5579,21 +5579,21 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>27/09/1999</t>
+          <t>08/11/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
+          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5623,25 +5623,25 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>27/09/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
+          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>410</v>
+        <v>1960</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
+          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Floridor del Carmen Almonacid Oyarzo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>3000</v>
+        <v>410</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,15 +5767,15 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Floridor del Carmen Almonacid Oyarzo</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>630</v>
+        <v>3000</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -5785,7 +5785,7 @@
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,43 +5800,91 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>630</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
           <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición de Aguas Servidas de Maullín</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
         </is>
       </c>
-      <c r="F114" t="n">
+      <c r="F115" t="n">
         <v>2000</v>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I114" t="inlineStr">
+      <c r="I115" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1027&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J114" t="inlineStr">
+      <c r="J115" t="inlineStr">
         <is>
           <t>Maullín</t>
         </is>

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/05/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -495,12 +495,12 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,11 +4951,11 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
@@ -4964,12 +4964,12 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -3127,7 +3127,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F58" t="n">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sistema de Transmision del Sur S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F76" t="n">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE EDUCACION Y SALUD AUSTRAL LTDA.</t>
+          <t>SOCIEDAD DE SERVICIOS AUSTRAL SpA</t>
         </is>
       </c>
       <c r="F23" t="n">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4567,7 +4567,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F111" t="n">
@@ -5863,7 +5863,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Empresa de Servicios Sanitarios de los Lagos ESSAL</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F115" t="n">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J115"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,12 +424,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Crianza y Producción de Peces en Tierra en Ambiente Controlado</t>
+          <t>Parque Eólico Los Portones</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SMART AQUACULTURE SpA</t>
+          <t>Engie Energía Chile S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>180000</v>
+        <v>250000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/04/2023</t>
+          <t>05/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158972986&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2160070564&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plataforma de Economía Circular Volta Los Lagos</t>
+          <t>Crianza y Producción de Peces en Tierra en Ambiente Controlado</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,11 +487,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Volta Servicios SPA</t>
+          <t>SMART AQUACULTURE SpA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>20000</v>
+        <v>180000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159033004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158972986&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Central de Respaldo tipo PMGD Calbuco</t>
+          <t>Plataforma de Economía Circular Volta Los Lagos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Aggreko Chile Limitada</t>
+          <t>Volta Servicios SPA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9000</v>
+        <v>20000</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>22/12/2022</t>
+          <t>20/04/2023</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2159033004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
+          <t>Central de Respaldo tipo PMGD Calbuco</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Aggreko Chile Limitada</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>42067</v>
+        <v>9000</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>18/01/2022</t>
+          <t>22/12/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157925796&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -639,17 +639,17 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>17/12/2021</t>
+          <t>18/01/2022</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154546296&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -664,12 +664,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
+          <t>Modificación de Proyecto: Planta Gasificadora WTE y Valorización de Residuos?.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -679,25 +679,25 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Transmisora del Pacífico S.A.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>107000</v>
+        <v>42067</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>30/09/2020</t>
+          <t>17/12/2021</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2154458123&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -712,12 +712,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
+          <t>Sistema de Transmisión S/E Tineo - S/E Nueva Ancud</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,25 +727,25 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
+          <t>Transmisora del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>63000</v>
+        <v>107000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>01/12/2015</t>
+          <t>30/09/2020</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2147998098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
+          <t>Piscicultura de Recirculación Astilleros Sector Pargua, X Región</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -775,15 +775,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
+          <t>INVERSIONES Y GESTION DEL SUR S.A.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>65</v>
+        <v>63000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21/04/2015</t>
+          <t>01/12/2015</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130938405&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Relleno Industrial de Residuos No Organicos</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO SAN PEDRO NOLASCO, COMUNA DE MAULLÍN, REGIÓN DE LOS LAGOS, Nº PERT 94101023"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -823,25 +823,25 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>PRODUCTOS Y ALGAS DEL MAR S.A</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>25000</v>
+        <v>65</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>26/11/2014</t>
+          <t>21/04/2015</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2130393269&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -856,12 +856,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
+          <t>Relleno Industrial de Residuos No Organicos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -871,25 +871,25 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>65</v>
+        <v>25000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>18/11/2014</t>
+          <t>26/11/2014</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129974932&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
+          <t>"CENTRO DE CULTIVO DE GRACILARIA, RÍO MAULLÍN RIBERA NORTE, COMUNA DE MAULLÍN, DÉCIMA REGIÓN DE LOS LAGOS, Nº PERT 208101115"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -914,20 +914,20 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Trexval S.A.</t>
+          <t>FEDERACION DE SINDICATO PESCADORES ARTESANALES Y ACUICULTORES "RIBERA NORTE" RÍO MAULLÍN</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21/06/2013</t>
+          <t>18/11/2014</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -937,7 +937,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2129962047&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
+          <t>REGULARIZACIÓN DEL TRANSPORTE DE SUSTANCIAS PELIGROSAS TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -967,25 +967,25 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Trexval S.A.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>10/05/2013</t>
+          <t>21/06/2013</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8280859&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
+          <t>Transporte de residuos No Peligrosos, Peligrosos y Especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,15 +1015,15 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mauricio Salím Mahmud Vergara</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2500</v>
+        <v>250</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06/05/2013</t>
+          <t>10/05/2013</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8158912&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
+          <t>Transporte de Sustancias Peligrosas TREXVAL S.A.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1058,30 +1058,30 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Mauricio Salím Mahmud Vergara</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>56</v>
+        <v>2500</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>30/07/2012</t>
+          <t>06/05/2013</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=8126996&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
+          <t>Aumento de Producción Empréstito Avellanal. Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1111,25 +1111,25 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3000</v>
+        <v>56</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>18/05/2012</t>
+          <t>30/07/2012</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>No calificado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7168318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
+          <t>"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, SECTOR ESTE PUNTA CHUYAQUEN, RÍO MAULLÍN código 102.621,PERT 211101009"</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>20/04/2012</t>
+          <t>18/05/2012</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6917573&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
+          <t>DECLARAC"MODIFICACIÓN DE PROYECTO TECNICO EN CENTRO DE CULTIVO DE SALMONIDOS, RÍO MAULLÍN, SECTOR NOROESTE PUNTA CEBADAL, código 102.498,PERT 211101010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1202,30 +1202,30 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>20/02/2012</t>
+          <t>20/04/2012</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6826670&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
+          <t>TRANSPORTE DE RESIDUOS NO PELIGROSOS, PELIGROSOS Y ESPECIALES (REAS) ENTRE LA XV REGIÓN Y LA X REGIÓN. .</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>10/01/2012</t>
+          <t>20/02/2012</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1273,7 +1273,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6587142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1288,7 +1288,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
+          <t>Transporte de residuos no peligrosos, peligrosos y especiales entre la XV región y la X región</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1298,30 +1298,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>SERVICIOS TECNICOS URBANOS LTDA</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>73834</v>
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>19/12/2011</t>
+          <t>10/01/2012</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6470142&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1336,7 +1336,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
+          <t>Ampliación centro de cultivo en ambiente controlado Neosalmon</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1351,15 +1351,15 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Juvenal HUmberto Zuñiga Torres</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>40</v>
+        <v>73834</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>10/11/2011</t>
+          <t>19/12/2011</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6386733&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Transporte de residuos peligrosos y no peligrosos</t>
+          <t>Aumento de Producción Empréstito Los Lingues, Comuna de Maullín, Región de Los Lagos</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1394,30 +1394,30 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Fernando Luciano Huerta Tello</t>
+          <t>Juvenal HUmberto Zuñiga Torres</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04/10/2011</t>
+          <t>10/11/2011</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6212178&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
+          <t>Transporte de residuos peligrosos y no peligrosos</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1442,30 +1442,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SOCIEDAD DE SERVICIOS AUSTRAL SpA</t>
+          <t>Fernando Luciano Huerta Tello</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>319</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24/08/2011</t>
+          <t>04/10/2011</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5958795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
+          <t>REGULARIZACIÓN DISPOSICIÓN FINAL DE RILES DE LA PLANTA DE LAVADO DE CAMIONES DE SOCIEDAD EDYSA AUSTRAL LTDA. COMUNA DE MAULLÍN. PROVINCIA DE LLANQUIHUE. REGIÓN DE LOS LAGOS.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1495,15 +1495,15 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Salmoconcesiones S.A.</t>
+          <t>SOCIEDAD DE SERVICIOS AUSTRAL SpA</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>14/03/2011</t>
+          <t>24/08/2011</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5948563&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -1528,7 +1528,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Chuyaquen, Río Maullín, Código 102.621" Sistema de Ensilaje CCS Chuyaquen Río Maullín</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5444776&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -1576,7 +1576,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
+          <t>"Implementación y Operación de Sistema de Ensilaje de Mortalidad en Centro de Cultivo de Salmones Punta Cebadal, Río Maullín, Código 102.498" Sistema de Ensilaje CCS Punta Cebadal.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1591,15 +1591,15 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Salmones Río Coihue S.A.</t>
+          <t>Salmoconcesiones S.A.</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>14000</v>
+        <v>30</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>24/01/2011</t>
+          <t>14/03/2011</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1609,7 +1609,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5445072&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -1624,7 +1624,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
+          <t>"Centro de cultivo de salmones en ambiente controlado NEOSALMON"</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1639,15 +1639,15 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Dragados CVV Constructora S.A.</t>
+          <t>Salmones Río Coihue S.A.</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>315</v>
+        <v>14000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>15/11/2010</t>
+          <t>24/01/2011</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5268705&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -1672,7 +1672,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
+          <t>Empréstito Cabero para construcción Concesión Ruta 5: Puerto Montt - Pargua</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1682,30 +1682,30 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Sociedad Logística Ambiental Ltda.</t>
+          <t>Dragados CVV Constructora S.A.</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>24/06/2010</t>
+          <t>15/11/2010</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5083491&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
+          <t>MANEJO IN SITU Y TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1735,25 +1735,25 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
+          <t>Sociedad Logística Ambiental Ltda.</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>22/01/2010</t>
+          <t>24/06/2010</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4702856&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -1768,7 +1768,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
+          <t>Transporte de Residuos Pelgrosos por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Química del Sur y Compañía Limitada</t>
+          <t>DISAL CHILE SANITARIOS PORTABLES LIMITADA</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -1796,12 +1796,12 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4333791&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas por las Rutas Indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1831,25 +1831,25 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>PROCESAN S.A.</t>
+          <t>Química del Sur y Compañía Limitada</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>23/10/2009</t>
+          <t>22/01/2010</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4340284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
+          <t>Transporte Inter-Regional Terrestre de Residuos, PROCESAN S.A. (e-seia)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1879,25 +1879,25 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Soluciones Ambientales del Norte S. A.</t>
+          <t>PROCESAN S.A.</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>250</v>
+        <v>377</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>18/08/2009</t>
+          <t>23/10/2009</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4134794&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos CMR Norte. (e-seia)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1927,15 +1927,15 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Transportes Centro Sur Norte S.A.</t>
+          <t>Soluciones Ambientales del Norte S. A.</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>27/07/2009</t>
+          <t>18/08/2009</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1945,7 +1945,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3960661&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto Interregional de Transporte de Combustibles y Residuos Industriales, Peligrosos y No Peligrosos entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1975,15 +1975,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sotrans Limitada</t>
+          <t>Transportes Centro Sur Norte S.A.</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>02/06/2009</t>
+          <t>27/07/2009</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1993,7 +1993,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3893261&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2018,30 +2018,30 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>RED MAR LTDA</t>
+          <t>Sotrans Limitada</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>26/03/2009</t>
+          <t>02/06/2009</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3811831&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -2056,7 +2056,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
+          <t>Modificación del punto de descarga de la planta de tratamiento de RILes (e-seia)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2071,15 +2071,15 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Inmobiliaria Núñez Limitada</t>
+          <t>RED MAR LTDA</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>10/03/2009</t>
+          <t>26/03/2009</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3661901&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -2104,7 +2104,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
+          <t>Regularización de Sistema de Tratamiento de riles y descarga de efluente vía Emisario Submarino fuera de la Zona de protección Litoral. Carelmapu, Comuna de Maullín. Décima Región de los Lagos. (e-seia)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2119,15 +2119,15 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
+          <t>Inmobiliaria Núñez Limitada</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>185625</v>
+        <v>15</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>10/11/2008</t>
+          <t>10/03/2009</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -2137,7 +2137,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3622098&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -2152,7 +2152,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Concesión Ruta 5 Tramo Puerto Montt - Pargua (e-seia)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2162,30 +2162,30 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sociedad Concesionaria Ruta del Canal S.A.</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>250</v>
+        <v>185625</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>15/10/2008</t>
+          <t>10/11/2008</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3314630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>01/10/2008</t>
+          <t>15/10/2008</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -2233,7 +2233,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3271448&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2258,30 +2258,30 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>11000</v>
+        <v>250</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>15/09/2008</t>
+          <t>01/10/2008</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3232866&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ (e-seia)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2319,17 +2319,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>04/09/2008</t>
+          <t>15/09/2008</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3186002&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Construcción Sistema de Transmisión en 220 KV. Puerto Montt Chiloé. 3era etapa Colaco Degañ. (e-seia)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2354,30 +2354,30 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>250</v>
+        <v>11000</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>20/08/2008</t>
+          <t>04/09/2008</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3145447&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2407,25 +2407,25 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1650</v>
+        <v>250</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06/08/2008</t>
+          <t>20/08/2008</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2455,15 +2455,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>20</v>
+        <v>1650</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05/08/2008</t>
+          <t>06/08/2008</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2473,7 +2473,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
@@ -2488,7 +2488,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2503,25 +2503,25 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Kuality Harvest SA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1200</v>
+        <v>20</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>29/07/2008</t>
+          <t>05/08/2008</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Sistema de Matanza y Cosecha de Salmones in Situ Sistema de Matanza y Cosecha de Salmones in Situ (e-seia)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2551,15 +2551,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Kuality Harvest SA</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>20</v>
+        <v>1200</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>09/07/2008</t>
+          <t>29/07/2008</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2569,7 +2569,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2956347&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -2584,7 +2584,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2599,15 +2599,15 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1650</v>
+        <v>20</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07/07/2008</t>
+          <t>09/07/2008</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2617,7 +2617,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3023770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2642,30 +2642,30 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>2000</v>
+        <v>1650</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>02/06/2008</t>
+          <t>07/07/2008</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3008477&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -2680,7 +2680,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>transporte de residuos peligrosos (e-seia)</t>
+          <t>Mejora de las condiciones de operación del vertedero El Empalme; regularización y ampliación. (e-seia)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2690,30 +2690,30 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>30/05/2008</t>
+          <t>02/06/2008</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2941201&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -2728,7 +2728,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
+          <t>transporte de residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2738,30 +2738,30 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>04/02/2008</t>
+          <t>30/05/2008</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2910651&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
+          <t>REUBICACIÓN Y GEOREFERENCIA DE LA INSTALACIÓN DE ALMACENAMIENTO PROLONGADO DE RESPEL (e-seia)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2786,12 +2786,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>29/01/2008</t>
+          <t>04/02/2008</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2689284&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -2824,7 +2824,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Anyeceni (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE SUSTANCIAS PELIGROSAS EN Y ENTRE LAS REGIONES XV Y X (e-seia)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2834,30 +2834,30 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cristina Eliana Vera García</t>
+          <t>INVERSIONES AUTOMOTRICES K Y L LIMITADA</t>
         </is>
       </c>
       <c r="F52" t="n">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>20/12/2007</t>
+          <t>29/01/2008</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2671596&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
@@ -2872,7 +2872,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ANYECENI (e-seia)</t>
+          <t>Anyeceni (e-seia)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2895,17 +2895,17 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>13/12/2007</t>
+          <t>20/12/2007</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2592225&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
@@ -2920,7 +2920,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
+          <t>ANYECENI (e-seia)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2930,30 +2930,30 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Servicio de Aseo Integral Monterredondo S.A</t>
+          <t>Cristina Eliana Vera García</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>08/10/2007</t>
+          <t>13/12/2007</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2576692&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
@@ -2968,7 +2968,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte de Residuos Industriales Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2983,15 +2983,15 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Manuel Olguín Olguín</t>
+          <t>Servicio de Aseo Integral Monterredondo S.A</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>10</v>
+        <v>234</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>31/08/2007</t>
+          <t>08/10/2007</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -3001,7 +3001,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2417466&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -3016,7 +3016,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
+          <t>Transporte Terrestre de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -3026,30 +3026,30 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Manuel Olguín Olguín</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>104500</v>
+        <v>10</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>19/07/2007</t>
+          <t>31/08/2007</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2333339&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transportes de Residuos Industrales (e-seia)</t>
+          <t>SISTEMA DE ADECUACION DE LODOS ORGANICOS PARA DISPOSICION FINALEN VERTEDERO DE RESIDUOS SOLIDOS ORGANICOS E INODRGANICOS (e-seia)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3074,30 +3074,30 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Castañeda Hermanos Ltda.</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>300</v>
+        <v>104500</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>04/07/2007</t>
+          <t>19/07/2007</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2264818&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
+          <t>Transportes de Residuos Industrales (e-seia)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3122,30 +3122,30 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Castañeda Hermanos Ltda.</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>8400</v>
+        <v>300</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05/06/2007</t>
+          <t>04/07/2007</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2237184&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
@@ -3160,7 +3160,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
+          <t>Refuerzo Sistema de Transmisión a 220 Kv. Puerto Montt - Chiloé. 1era y 2da Etapa Melipulli - Colaco (e-seia)</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3175,15 +3175,15 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>33</v>
+        <v>8400</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>26/04/2007</t>
+          <t>05/06/2007</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2188639&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
+          <t>CULTIVO DE GRACILARIA CHANGUE (e-seia)</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3223,25 +3223,25 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Juan Gerardo Ruiz Hernández</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Flor del Mar.</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>33</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>09/02/2007</t>
+          <t>26/04/2007</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2132398&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -3256,7 +3256,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Sistema de tratamiento de RILes "Juan Ruiz" (e-seia)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -3266,30 +3266,30 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ECOSER SpA</t>
+          <t>Juan Gerardo Ruiz Hernández</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>12/01/2007</t>
+          <t>09/02/2007</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1953721&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -3304,7 +3304,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de Trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -3327,17 +3327,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>29/12/2006</t>
+          <t>12/01/2007</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1930485&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Tratamiento Fisico "in situ" de trituración de Tubos Fluorescentes (e-seia)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -3367,25 +3367,25 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ECOSER SpA</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>10/11/2006</t>
+          <t>29/12/2006</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1889781&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -3400,7 +3400,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>25/10/2006</t>
+          <t>10/11/2006</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -3448,7 +3448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Peligrosos (e-seia)</t>
+          <t>Transporte terrestre en camiones de Sustancias y Residuos Peligrosos entre la regiones V y X 193 (e-seia)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3463,25 +3463,25 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bravo Energy Chile S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>12/10/2006</t>
+          <t>25/10/2006</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1767215&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -3496,7 +3496,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
+          <t>Transporte de Residuos Peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3506,20 +3506,20 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Carlos Marcelo Barría Gunckel</t>
+          <t>Bravo Energy Chile S.A.</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1200</v>
+        <v>250</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>28/08/2006</t>
+          <t>12/10/2006</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1741060&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
+          <t>Centro Cultivo Caleta Godoy (e-seia)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3554,20 +3554,20 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
+          <t>Carlos Marcelo Barría Gunckel</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>80</v>
+        <v>1200</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>09/08/2006</t>
+          <t>28/08/2006</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -3577,7 +3577,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1654501&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -3592,7 +3592,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS INDUSTRIALES PELIGROSOS Y NO PELIGROSOS POR RUTAS INDICADAS ENTRE I y X REGION (e-seia)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>mario enrique barra diaz</t>
+          <t>GESTION INTEGRAL DE RESIDUOS GEOBARRA EXINS LTDA.</t>
         </is>
       </c>
       <c r="F68" t="n">
@@ -3615,17 +3615,17 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>22/06/2006</t>
+          <t>09/08/2006</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1616105&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -3640,7 +3640,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Transporte de Combustible (e-seia)</t>
+          <t>TransporteTerrestre de Residuos Industriales Peligrosos y No Peligrosos por Rutas Indicadas entre la I y X Región (e-seia)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3655,25 +3655,25 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
+          <t>mario enrique barra diaz</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21/04/2006</t>
+          <t>22/06/2006</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1508957&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Transporte de Combustibles (e-seia)</t>
+          <t>Transporte de Combustible (e-seia)</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3711,17 +3711,17 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>31/03/2006</t>
+          <t>21/04/2006</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1408985&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -3736,7 +3736,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
+          <t>Transporte de Combustibles (e-seia)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3751,25 +3751,25 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Francisco Javier Acuña Carter</t>
+          <t>Distribuidora de Combustibles y Lubricantes Santa Maria Limitada</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>27/03/2006</t>
+          <t>31/03/2006</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1371777&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACIÒN IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3807,17 +3807,17 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>06/03/2006</t>
+          <t>27/03/2006</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1361427&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
+          <t>TRATAMIENTO DE RESIDUOS FORESTALES CELULOSICOS (RFC) MEDIANTE INCINERACION IN SITU (e-seia)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3847,25 +3847,25 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Iris Leiva ALbornoz Ltda.</t>
+          <t>Francisco Javier Acuña Carter</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>02/03/2006</t>
+          <t>06/03/2006</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1308428&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -3880,7 +3880,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
+          <t>Transporte de sustancias y residuos peligrosos (e-seia)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3890,30 +3890,30 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rexin SPA</t>
+          <t>Iris Leiva ALbornoz Ltda.</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>22/02/2006</t>
+          <t>02/03/2006</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281009&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -3928,7 +3928,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
+          <t>Sistema de Adecuación de Lodos Orgánicos, para Codisposición en Vertedero de Residuos Sólidos Orgánicos e Inorgánicos (e-seia)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3951,17 +3951,17 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>13/02/2006</t>
+          <t>22/02/2006</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1301238&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -3976,7 +3976,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
+          <t>Retiro, Transporte e Instalación de Almacenamiento prolongado de Residuos Peligrosos, Equivalente a Intalación de Eliminación 0 (e-seia)</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3991,15 +3991,15 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Rexin SPA</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1772</v>
+        <v>200</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>25/01/2006</t>
+          <t>13/02/2006</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -4009,7 +4009,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1281917&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
+          <t>Modificación Línea existente Melipulli - El Empalme 66 Kv. a 110 Kv. (e-seia)</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -4034,20 +4034,20 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Proactiva Servicios Industriales S.A.</t>
+          <t>Sistema de Transmisión del Sur SA</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>1772</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>28/10/2005</t>
+          <t>25/01/2006</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -4057,7 +4057,7 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1237386&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
+          <t>TRANSPORTE DE RESIDUOS INDUSTRIALES PELIGROSOS POR LAS RUTAS INDICADAS (e-seia)</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -4082,20 +4082,20 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Carlos Antonio Velazquez Gonzalez</t>
+          <t>Proactiva Servicios Industriales S.A.</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>23/09/2005</t>
+          <t>28/10/2005</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -4105,7 +4105,7 @@
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1057139&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
@@ -4120,7 +4120,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
+          <t>Cultivo de Alga Sector Maullin (e-seia)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -4135,7 +4135,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Luis alejandro Novoa Rojas</t>
+          <t>Carlos Antonio Velazquez Gonzalez</t>
         </is>
       </c>
       <c r="F79" t="n">
@@ -4143,17 +4143,17 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07/07/2005</t>
+          <t>23/09/2005</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1032287&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
+          <t>Sistema de Tratamiento de Residuos Industriales Líquidos, Luis Alejandro Novoa Rojas (e-seia)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -4183,25 +4183,25 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Luis alejandro Novoa Rojas</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>02/06/2005</t>
+          <t>07/07/2005</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=912617&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
@@ -4216,7 +4216,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
+          <t>Cultivo de Algas Gracilaria Rio Cululil-Quenuir (e-seia)</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -4231,15 +4231,15 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Juan Erwin Carcamo Carcamo</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1358</v>
+        <v>14</v>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>01/06/2005</t>
+          <t>02/06/2005</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=876995&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
@@ -4264,7 +4264,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>Sistema de Alcantarillado y Planta de Tratamiento de Aguas Servidas. Carelmapu (e-seia)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -4274,20 +4274,20 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>Juan Erwin Carcamo Carcamo</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>200</v>
+        <v>1358</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>05/05/2005</t>
+          <t>01/06/2005</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -4297,7 +4297,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=849844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -4312,7 +4312,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>19/04/2005</t>
+          <t>05/05/2005</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=664436&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
+          <t>CULTIVO DE ALGAS GRACILARIA RIO CULULIL Pert:201101034 (e-seia)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -4370,30 +4370,30 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>200</v>
+        <v>14</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09/03/2005</t>
+          <t>19/04/2005</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=667823&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -4408,7 +4408,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
+          <t>Transporte terrestre de sustancias químicas (e-seia)</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -4418,30 +4418,30 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
+          <t>Inmobiliaria e inversiones Polykarpo S.A.</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>13/07/2004</t>
+          <t>09/03/2005</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=614117&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
+          <t>CULTIVO ESTRELLA DEL MAR (Nº SOL. 203101016) (e-seia)</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -4466,20 +4466,20 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Decimocuarta</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
+          <t>Sindicato de Trabajadores Independientes, Pescadores Artesanales y Algueros Estrella del Mar</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>01/07/2004</t>
+          <t>13/07/2004</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -4489,7 +4489,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=399748&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -4504,7 +4504,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
+          <t>PLAN REGIONAL DE DESARROLLO URBANO (e-seia)</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -4514,20 +4514,20 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Decimocuarta</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>SEREMI DE VIVIENDA Y URBANISMO X REGIÓN DE LOS LAGOS</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09/09/2003</t>
+          <t>01/07/2004</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=389944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -4552,7 +4552,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
+          <t>Transporte de Residuos Industriales por las Rutas indicadas (e-seia)</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4562,20 +4562,20 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>700</v>
+        <v>200</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10/06/2003</t>
+          <t>09/09/2003</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -4585,7 +4585,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=135650&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
+          <t>Recolección, tratamiento y disposición final de las aguas servidas de Maullín (e-seia)</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4615,15 +4615,15 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1</v>
+        <v>700</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07/04/2003</t>
+          <t>10/06/2003</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -4633,7 +4633,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=95758&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
@@ -4648,7 +4648,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
+          <t>Cultivo de Algas Gracilaria Río Quenuir ( Solicitud Nº201101033)</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4663,25 +4663,25 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cristian Heriberto Ojeda Zurita</t>
+          <t>CULTIVOS MARINOS CHILESUR S.A.</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>30/10/2002</t>
+          <t>07/04/2003</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6253&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
@@ -4696,7 +4696,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
+          <t>Cultivos Ojeda Zurita (Solictud Nº 201101050)</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4711,25 +4711,25 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
+          <t>Cristian Heriberto Ojeda Zurita</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>17/09/2002</t>
+          <t>30/10/2002</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=6003&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
+          <t>Cultivos Quenuir Alto ( Solicitud N°99101044)</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4759,15 +4759,15 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
+          <t>Sindicato de Trab. Indep., Buzos, Ayudantes de Buzo, Pesc. Art. y Ramos Similares, Quenuir Alto</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>13/09/2002</t>
+          <t>17/09/2002</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5843&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
+          <t>Cultivo de Mytilidos y Ostreídos La Pasada Comuna de Maullín ( Solicitud N°201101055)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4807,15 +4807,15 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
+          <t>Sociedad Comercial Cultivos Marinos El Rey Ltda.</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>05/08/2002</t>
+          <t>13/09/2002</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -4825,7 +4825,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5844&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -4840,7 +4840,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Cultivos Isla Amortajado</t>
+          <t>Cultivo de Algas Río San Pedro Nolasco ( Solicitud N°94101046)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4855,15 +4855,15 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
+          <t>Sindicato de Trabajadores Independientes Agrícolas y Algueros</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31/05/2002</t>
+          <t>05/08/2002</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5749&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
@@ -4888,7 +4888,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
+          <t>Cultivos Isla Amortajado</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4903,15 +4903,15 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Sindicato de Trab. Indep. Pescadores Artesanales, Mariscadores y Algueros de Isla Amortajado</t>
         </is>
       </c>
       <c r="F95" t="n">
-        <v>1810</v>
+        <v>0</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>19/11/2001</t>
+          <t>31/05/2002</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4921,7 +4921,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5482&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Instalacion del Alcantarillado y planta de Tratamiento de Aguas Servidas de Carelmapu</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4951,15 +4951,15 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F96" t="n">
-        <v>1090</v>
+        <v>1810</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>13/11/2001</t>
+          <t>19/11/2001</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4969,7 +4969,7 @@
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4846&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,7 +5047,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F98" t="n">
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>05/11/2001</t>
+          <t>13/11/2001</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -5065,7 +5065,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Transporte de Residuos Industriales</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5138,30 +5138,30 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>ECOSUR S.A.</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>25/09/2001</t>
+          <t>05/11/2001</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
@@ -5176,7 +5176,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Algas Hernández (Sol. N°97101021)</t>
+          <t>Transporte de Residuos Industriales</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -5186,30 +5186,30 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Lucio Gaspar Hernandez Hernandez</t>
+          <t>ECOSUR S.A.</t>
         </is>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>24/08/2001</t>
+          <t>25/09/2001</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4591&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
+          <t>Algas Hernández (Sol. N°97101021)</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Hector Ramon Asencio Hernandez</t>
+          <t>Lucio Gaspar Hernandez Hernandez</t>
         </is>
       </c>
       <c r="F102" t="n">
@@ -5247,7 +5247,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06/08/2001</t>
+          <t>24/08/2001</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -5257,7 +5257,7 @@
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4318&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Fogón Contumbrista Camping Pangal</t>
+          <t>Cultivo Gracilaria SPP en el Sector de Changue Comuna de Maullín Provincia de Llanquihue ( Sol. N°98101065)</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -5287,15 +5287,15 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Hector Ramon Asencio Hernandez</t>
         </is>
       </c>
       <c r="F103" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>24/04/2001</t>
+          <t>06/08/2001</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -5305,7 +5305,7 @@
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4220&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
@@ -5320,7 +5320,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
+          <t>Fogón Contumbrista Camping Pangal</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -5339,11 +5339,11 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>27/03/2001</t>
+          <t>24/04/2001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -5353,7 +5353,7 @@
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3868&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J104" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Plan Regulador Comunal de Maullín</t>
+          <t>Casetas Sanitarias Quenuir ( Segunda Presentación)</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -5387,11 +5387,11 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>02/08/2000</t>
+          <t>27/03/2001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3760&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
+          <t>Plan Regulador Comunal de Maullín</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -5426,20 +5426,20 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Décima</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F106" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>14/02/2000</t>
+          <t>02/08/2000</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -5449,7 +5449,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3078&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -5464,7 +5464,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
+          <t>Transporte de Artefactos y/o Materiales Contaminados o que contienen Bifenilospoliclorados (BPC) o Terfenilospoliclorados</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -5474,30 +5474,30 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Décima</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
+          <t>Compañía de Desarrollo Minero Industrial CHIHOL Ltda.</t>
         </is>
       </c>
       <c r="F107" t="n">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>31/01/2000</t>
+          <t>14/02/2000</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Abandonado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2686&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Pesquera Industrial Maullín</t>
+          <t>Planta Procesadora de Productos del Mar Caleta Carelmapu</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -5527,25 +5527,25 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Alvaro Salvador Cordova Carrasco</t>
+          <t>Sindicato de Pescadores Artesanales y Buzos de Caleta Carelmapu</t>
         </is>
       </c>
       <c r="F108" t="n">
-        <v>330</v>
+        <v>20</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>19/11/1999</t>
+          <t>31/01/2000</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Abandonado</t>
         </is>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2646&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Casetas Sanitarias Quenuir</t>
+          <t>Pesquera Industrial Maullín</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -5575,25 +5575,25 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Alvaro Salvador Cordova Carrasco</t>
         </is>
       </c>
       <c r="F109" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08/11/1999</t>
+          <t>19/11/1999</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2464&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
@@ -5608,7 +5608,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
+          <t>Casetas Sanitarias Quenuir</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -5627,21 +5627,21 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>1860</v>
+        <v>1000</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>27/09/1999</t>
+          <t>08/11/1999</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2401&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
+          <t>Proyecto Loteo Cerro Ten - Ten Maullín</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -5671,25 +5671,25 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Suralis S.A.</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F111" t="n">
-        <v>1960</v>
+        <v>1860</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>18/02/1999</t>
+          <t>27/09/1999</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2292&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
+          <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición Final de Aguas Servidas de Maullín ( Segunda Presentación )</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5719,25 +5719,25 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>I. Municipalidad de Maullín</t>
+          <t>Suralis S.A.</t>
         </is>
       </c>
       <c r="F112" t="n">
-        <v>410</v>
+        <v>1960</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>18/12/1998</t>
+          <t>18/02/1999</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1701&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J112" t="inlineStr">
@@ -5752,7 +5752,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
+          <t>Alcantarillado de Aguas Servidas Loteo Cerro Ten-Ten Maullín</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5767,25 +5767,25 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Floridor del Carmen Almonacid Oyarzo</t>
+          <t>I. Municipalidad de Maullín</t>
         </is>
       </c>
       <c r="F113" t="n">
-        <v>3000</v>
+        <v>410</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>02/07/1998</t>
+          <t>18/12/1998</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I113" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1530&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+          <t>Planta Procesadora de Recursos Hidrobiológicos</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5815,15 +5815,15 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+          <t>Floridor del Carmen Almonacid Oyarzo</t>
         </is>
       </c>
       <c r="F114" t="n">
-        <v>630</v>
+        <v>3000</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>01/07/1998</t>
+          <t>02/07/1998</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -5833,7 +5833,7 @@
       </c>
       <c r="I114" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1248&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J114" t="inlineStr">
@@ -5848,43 +5848,91 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
+          <t>Construcción de 80 Viviendas Básicas SERVIU de 4654 Metros</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>SERVICIO DE VIVIENDA Y URBANIZACION X REGION</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>630</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>01/07/1998</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Aprobado</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1249&amp;modo=ficha</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Maullín</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
           <t>Instalación del Sistema de Alcantarillado Tratamiento y Disposición de Aguas Servidas de Maullín</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>DIA</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Décima</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>DIA</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Décima</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>Suralis S.A.</t>
         </is>
       </c>
-      <c r="F115" t="n">
+      <c r="F116" t="n">
         <v>2000</v>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>30/03/1998</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Rechazado</t>
         </is>
       </c>
-      <c r="I115" t="inlineStr">
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1027&amp;modo=ficha</t>
         </is>
       </c>
-      <c r="J115" t="inlineStr">
+      <c r="J116" t="inlineStr">
         <is>
           <t>Maullín</t>
         </is>

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -2311,7 +2311,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -3175,7 +3175,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F59" t="n">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sistema de Transmisión del Sur SA</t>
+          <t>Sistema de Transmisión del Sur S.A.</t>
         </is>
       </c>
       <c r="F77" t="n">

--- a/data/Maullín.xlsx
+++ b/data/Maullín.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/10/2023</t>
+          <t>13/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
+          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4999,11 +4999,11 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Helmut Shaeffer Arroyo</t>
+          <t>Adelina Vitalia Raimilla Raimilla</t>
         </is>
       </c>
       <c r="F97" t="n">
-        <v>20</v>
+        <v>1090</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
@@ -5012,12 +5012,12 @@
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Cultivo de Alga Las Conchillas Nº Solicitud 97101098</t>
+          <t>Centro de Cultivo de Algas en el Rio Cariquilda Comuna de Maullin Provincia de Llanquihue Decima Región N° Pert 98101022</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Adelina Vitalia Raimilla Raimilla</t>
+          <t>Helmut Shaeffer Arroyo</t>
         </is>
       </c>
       <c r="F98" t="n">
-        <v>1090</v>
+        <v>20</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
@@ -5060,12 +5060,12 @@
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4858&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4857&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -5080,7 +5080,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Proyecto Los Avellanos N° Pert 98101067</t>
+          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -5095,11 +5095,11 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Francisco Alexis Gonzalez Ruiz</t>
+          <t>Mario Gastón Soto Soto</t>
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
@@ -5108,12 +5108,12 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -5128,7 +5128,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Cultivo de Moluscos Filtradores en Lenqui Canal de Chacao N° Pert 99101022</t>
+          <t>Proyecto Los Avellanos N° Pert 98101067</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -5143,11 +5143,11 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Mario Gastón Soto Soto</t>
+          <t>Francisco Alexis Gonzalez Ruiz</t>
         </is>
       </c>
       <c r="F100" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
@@ -5156,12 +5156,12 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4759&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
